--- a/Database_v2.xlsx
+++ b/Database_v2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dracu\Desktop\App Giam Can\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dracu\Documents\Visual Studio 2015\Projects\GiamCan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,45 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dat Nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Lượng kalo tiêu hao cho hoạt động hằng ngày</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>THONGKENGAY_MONAN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,21 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>THONGKENGAY_MONAN</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>NGUOIDUNG</t>
   </si>
@@ -401,6 +425,9 @@
   </si>
   <si>
     <t>luongKaloCanTieuHaoMoiNgay</t>
+  </si>
+  <si>
+    <t>chisoBMR</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1146,7 @@
   <dimension ref="B2:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1304,7 @@
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>19</v>
@@ -1286,7 +1313,7 @@
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>30</v>
@@ -1295,9 +1322,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="7" t="s">
-        <v>27</v>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>36</v>
@@ -1308,6 +1335,9 @@
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>

--- a/Database_v2.xlsx
+++ b/Database_v2.xlsx
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database_v2.xlsx
+++ b/Database_v2.xlsx
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database_v2.xlsx
+++ b/Database_v2.xlsx
@@ -111,8 +111,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">(cần phải + với lượng kalo cho hoạt động hằng ngày)
-</t>
+          <t xml:space="preserve">
+= tổng sum(luongkalotieuhao) from THONGKEBAITAP</t>
         </r>
       </text>
     </comment>
@@ -126,17 +126,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ăn</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>nhập từ thực đơn..
+Nếu không nhập = muctieu.chisobmr</t>
         </r>
       </text>
     </comment>
@@ -150,17 +141,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>+Lượng kalo khi tập
-+lượng kalo cho hoạt động hằng ngày</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">+Lượng kalo khi tập bài tập đó
 </t>
         </r>
       </text>
@@ -1146,7 +1127,7 @@
   <dimension ref="B2:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database_v2.xlsx
+++ b/Database_v2.xlsx
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,14 +139,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">+Lượng kalo khi tập bài tập đó
+            <family val="2"/>
+          </rPr>
+          <t>cho những hoạt động ngoài dự kiến (nhậu)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,18 +163,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cho những hoạt động ngoài dự kiến (nhậu)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">+Lượng kalo khi tập bài tập đó
 </t>
         </r>
       </text>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>NGUOIDUNG</t>
   </si>
@@ -279,12 +279,6 @@
     <t>tenDangNhap</t>
   </si>
   <si>
-    <t>tenNguoiDung</t>
-  </si>
-  <si>
-    <t>tuoi</t>
-  </si>
-  <si>
     <t>chieuCao</t>
   </si>
   <si>
@@ -409,6 +403,9 @@
   </si>
   <si>
     <t>chisoBMR</t>
+  </si>
+  <si>
+    <t>idThongKeBaiTap</t>
   </si>
 </sst>
 </file>
@@ -534,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -549,6 +546,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,7 +1125,7 @@
   <dimension ref="B2:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,203 +1151,200 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N3" s="3"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N4" s="3"/>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="I5" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="K5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N5" s="3"/>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N6" s="3"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E13" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I15" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
         <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
         <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
